--- a/data/css3_mcq.xlsx
+++ b/data/css3_mcq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22325284-E5F1-4D78-8725-B2C3DC2714A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF1CC20-ABA2-4BC3-90D5-5B8FFD98AD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{146AC9D8-D307-4CE7-B273-154F4712752D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>question</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>three</t>
-  </si>
-  <si>
-    <t>tree</t>
   </si>
 </sst>
 </file>
@@ -615,7 +612,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +986,7 @@
         <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>3</v>

--- a/data/css3_mcq.xlsx
+++ b/data/css3_mcq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF1CC20-ABA2-4BC3-90D5-5B8FFD98AD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB3CCA2-EC1B-4972-BFCD-FCCF9FCA8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{146AC9D8-D307-4CE7-B273-154F4712752D}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>django</t>
   </si>
   <si>
-    <t> larawell</t>
-  </si>
-  <si>
     <t>bootstrap</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>three</t>
+  </si>
+  <si>
+    <t>larawell</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70190308-DB4E-476F-B334-096EFADA282D}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -765,234 +765,234 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
